--- a/doc/cookbook/resource/resource-type.xlsx
+++ b/doc/cookbook/resource/resource-type.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="758" yWindow="743" windowWidth="22718" windowHeight="8505" tabRatio="768" activeTab="12"/>
+    <workbookView xWindow="758" yWindow="743" windowWidth="22718" windowHeight="8505" tabRatio="768"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14106" uniqueCount="6493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14110" uniqueCount="6493">
   <si>
     <t>name</t>
   </si>
@@ -19856,8 +19856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" activeCellId="1" sqref="A2:A4 F2:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -68932,7 +68932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -69351,19 +69351,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -69374,22 +69374,25 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6487</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -69399,23 +69402,26 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" t="s">
+        <v>6475</v>
+      </c>
+      <c r="E2" s="1">
         <v>41640</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -69425,23 +69431,26 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" t="s">
+        <v>6475</v>
+      </c>
+      <c r="E3" s="1">
         <v>41760</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -69451,19 +69460,22 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" t="s">
+        <v>6475</v>
+      </c>
+      <c r="E4" s="1">
         <v>41852</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>25000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1000</v>
       </c>
     </row>

--- a/doc/cookbook/resource/resource-type.xlsx
+++ b/doc/cookbook/resource/resource-type.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple.community\doc\cookbook\resource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="758" yWindow="743" windowWidth="22718" windowHeight="8505" tabRatio="768"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16493" windowHeight="7545" tabRatio="768" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -28,11 +23,12 @@
     <sheet name="parameter" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:N24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14110" uniqueCount="6493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14112" uniqueCount="6495">
   <si>
     <t>name</t>
   </si>
@@ -19511,6 +19507,12 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>product_1</t>
+  </si>
+  <si>
+    <t>product_2</t>
   </si>
 </sst>
 </file>
@@ -19854,10 +19856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19896,7 +19898,7 @@
         <v>6475</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6493</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -19916,7 +19918,7 @@
         <v>6475</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6494</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -19945,6 +19947,7 @@
         <v>6479</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20057,7 +20060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -69605,10 +69608,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -69631,6 +69634,16 @@
       </c>
       <c r="B2" t="s">
         <v>6478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6494</v>
       </c>
     </row>
   </sheetData>
